--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO692927
+    <t xml:space="preserve"> DEMO705446
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO705446
+    <t xml:space="preserve"> DEMO692927
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO692927
+    <t xml:space="preserve"> DEMO511166
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO511166
+    <t xml:space="preserve"> DEMO568236
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO568236
+    <t xml:space="preserve"> DEMO975911
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO975911
+    <t xml:space="preserve"> DEMO100094
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO100094
+    <t xml:space="preserve"> DEMO980096
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO980096
+    <t xml:space="preserve"> DEMO420457
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO420457
+    <t xml:space="preserve"> DEMO353663
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO420457
+    <t xml:space="preserve"> DEMO565027
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO420457
+    <t xml:space="preserve"> DEMO845036
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO845036
+    <t xml:space="preserve"> DEMO353663
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO353663
+    <t xml:space="preserve"> DEMO453079
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO353663
+    <t xml:space="preserve"> DEMO311685
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO311685
+    <t xml:space="preserve"> DEMO453079
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO453079
+    <t xml:space="preserve"> DEMO318701
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO453079
+    <t xml:space="preserve"> DEMO290280
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO290280
+    <t xml:space="preserve"> DEMO318701
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO318701
+    <t xml:space="preserve"> DEMO595271
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO595271
+    <t xml:space="preserve"> DEMO503477
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO503477
+    <t xml:space="preserve"> DEMO595271
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO595271
+    <t xml:space="preserve"> DEMO611835
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO611835
+    <t xml:space="preserve"> DEMO607660
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO607660
+    <t xml:space="preserve"> DEMO454426
             </t>
   </si>
 </sst>

--- a/download/ExamID.xlsx
+++ b/download/ExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO454426
+    <t xml:space="preserve"> DEMO423381
             </t>
   </si>
 </sst>
